--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Sprint.050421.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Sprint.050421.xlsx_with_dialog_acts.xlsx
@@ -559,12 +559,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4267,12 +4267,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5821,12 +5821,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6157,12 +6157,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6325,12 +6325,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6959,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7211,12 +7211,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7761,12 +7761,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8013,12 +8013,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8055,12 +8055,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8097,12 +8097,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8649,12 +8649,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10673,12 +10673,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10881,12 +10881,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11011,12 +11011,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11095,12 +11095,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11939,12 +11939,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12023,12 +12023,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12233,12 +12233,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12435,12 +12435,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12835,12 +12835,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12995,12 +12995,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13275,12 +13275,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13555,12 +13555,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13879,12 +13879,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13919,12 +13919,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14883,12 +14883,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14963,12 +14963,12 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15283,12 +15283,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15323,12 +15323,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15523,12 +15523,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15883,12 +15883,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16403,12 +16403,12 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16563,12 +16563,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17243,12 +17243,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18003,12 +18003,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18245,12 +18245,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18285,12 +18285,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18567,12 +18567,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18647,12 +18647,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19175,12 +19175,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19891,12 +19891,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21133,12 +21133,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21297,12 +21297,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21415,12 +21415,12 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21455,12 +21455,12 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21655,12 +21655,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22015,12 +22015,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22055,12 +22055,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22095,12 +22095,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22697,12 +22697,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23655,12 +23655,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23975,12 +23975,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24739,12 +24739,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25221,12 +25221,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25261,12 +25261,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25421,12 +25421,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25701,12 +25701,12 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25861,12 +25861,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26261,12 +26261,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26421,12 +26421,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26581,12 +26581,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26741,12 +26741,12 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26781,12 +26781,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27701,12 +27701,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27781,12 +27781,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27821,12 +27821,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28021,12 +28021,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28421,12 +28421,12 @@
       <c r="H684" t="inlineStr"/>
       <c r="I684" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28741,12 +28741,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29219,12 +29219,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29337,12 +29337,12 @@
       <c r="H707" t="inlineStr"/>
       <c r="I707" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29777,12 +29777,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29897,12 +29897,12 @@
       <c r="H721" t="inlineStr"/>
       <c r="I721" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30217,12 +30217,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30817,12 +30817,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30857,12 +30857,12 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30897,12 +30897,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31017,12 +31017,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31257,12 +31257,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31297,12 +31297,12 @@
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31463,12 +31463,12 @@
       <c r="H760" t="inlineStr"/>
       <c r="I760" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31673,12 +31673,12 @@
       <c r="H765" t="inlineStr"/>
       <c r="I765" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31715,12 +31715,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31841,12 +31841,12 @@
       <c r="H769" t="inlineStr"/>
       <c r="I769" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32135,12 +32135,12 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32387,12 +32387,12 @@
       <c r="H782" t="inlineStr"/>
       <c r="I782" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32513,12 +32513,12 @@
       <c r="H785" t="inlineStr"/>
       <c r="I785" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32807,12 +32807,12 @@
       <c r="H792" t="inlineStr"/>
       <c r="I792" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32975,12 +32975,12 @@
       <c r="H796" t="inlineStr"/>
       <c r="I796" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33395,12 +33395,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33437,12 +33437,12 @@
       <c r="H807" t="inlineStr"/>
       <c r="I807" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34023,12 +34023,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34233,12 +34233,12 @@
       <c r="H826" t="inlineStr"/>
       <c r="I826" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -34401,12 +34401,12 @@
       <c r="H830" t="inlineStr"/>
       <c r="I830" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35535,12 +35535,12 @@
       <c r="H857" t="inlineStr"/>
       <c r="I857" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36043,12 +36043,12 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
